--- a/CLE3_T3G5/configs_progCPU.xlsx
+++ b/CLE3_T3G5/configs_progCPU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis1\Documents\ubuntu_shared\CLE\CLE_2022_2023\CLE3_T3G5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84422F3E-93E8-49C9-9E2F-9B7645C62474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA945FA9-C8BB-4150-8CC1-4F09A5DD3F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D3F91F4-B404-421F-A1CF-5244EAEDD666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D3F91F4-B404-421F-A1CF-5244EAEDD666}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>times (ms)</t>
   </si>
@@ -46,15 +46,72 @@
   <si>
     <t>standard
 deviation (ms)</t>
+  </si>
+  <si>
+    <t>iSeq[0]</t>
+  </si>
+  <si>
+    <t>iSeq[1]</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>iSeq[1023]</t>
+  </si>
+  <si>
+    <t>iSeq[1024]</t>
+  </si>
+  <si>
+    <t>iSeq[1025]</t>
+  </si>
+  <si>
+    <t>iSeq[2047]</t>
+  </si>
+  <si>
+    <t>iSeq[2048]</t>
+  </si>
+  <si>
+    <t>iSeq[2049]</t>
+  </si>
+  <si>
+    <t>iSeq[3071]</t>
+  </si>
+  <si>
+    <t>.
+.
+.</t>
+  </si>
+  <si>
+    <t>iSeq[1047552]</t>
+  </si>
+  <si>
+    <t>iSeq[1047553]</t>
+  </si>
+  <si>
+    <t>iSeq[1048575]</t>
+  </si>
+  <si>
+    <t>iSeq[2]</t>
+  </si>
+  <si>
+    <t>iSeq[1022]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,13 +134,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -91,6 +212,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,21 +535,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8229D8-8ECD-4077-BCFB-46B3A1A858CA}">
   <dimension ref="A2:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -443,7 +569,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>1</v>
@@ -453,324 +579,463 @@
         <v>763.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <f>STDEVA(C3:G3)</f>
         <v>19.856988694160048</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="E16:E26"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:C26"/>
+    <mergeCell ref="D16:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
